--- a/lbdata_164.xlsx
+++ b/lbdata_164.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcs314\Documents\Visual Studio 2012\Projects\lab2min\lab2min\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcs314\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9855" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="lbdata_164" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>K = 0.28</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Offset (m)</t>
   </si>
   <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Wavelength (nm)</t>
+  </si>
+  <si>
+    <t>Assiciated Error</t>
   </si>
 </sst>
 </file>
@@ -881,19 +884,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -901,10 +906,13 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>569.66300000000001</v>
       </c>
@@ -914,8 +922,12 @@
       <c r="D2">
         <v>569.66300000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>A3</f>
+        <v>6.3326900000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6.3326900000000004</v>
       </c>
@@ -925,8 +937,12 @@
       <c r="D3">
         <v>577.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>A6</f>
+        <v>6.1800699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -936,8 +952,12 @@
       <c r="D4">
         <v>585.61699999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>A9</f>
+        <v>6.0296200000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>577.64</v>
       </c>
@@ -947,8 +967,12 @@
       <c r="D5">
         <v>593.59299999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>A12</f>
+        <v>5.8815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.1800699999999997</v>
       </c>
@@ -958,8 +982,12 @@
       <c r="D6">
         <v>601.57000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>A15</f>
+        <v>5.7358900000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -969,8 +997,12 @@
       <c r="D7">
         <v>609.54700000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>A18</f>
+        <v>5.593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>585.61699999999996</v>
       </c>
@@ -980,8 +1012,12 @@
       <c r="D8">
         <v>617.524</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>A21</f>
+        <v>5.45303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.0296200000000004</v>
       </c>
@@ -991,8 +1027,12 @@
       <c r="D9">
         <v>625.50099999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>A24</f>
+        <v>5.3162200000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1042,12 @@
       <c r="D10">
         <v>633.47799999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>A27</f>
+        <v>5.1828099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>593.59299999999996</v>
       </c>
@@ -1013,8 +1057,12 @@
       <c r="D11">
         <v>641.45399999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>A30</f>
+        <v>5.0530799999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.8815</v>
       </c>
@@ -1024,8 +1072,12 @@
       <c r="D12">
         <v>649.43100000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>A33</f>
+        <v>4.9273100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1035,18 +1087,22 @@
       <c r="D13">
         <v>657.40800000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>A36</f>
+        <v>4.8058199999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>601.57000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.7358900000000004</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -1057,12 +1113,12 @@
         <v>613.53550000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <f>0.335-0.308</f>
@@ -1078,7 +1134,7 @@
         <v>609.54700000000003</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>6.3326900000000004</v>

--- a/lbdata_164.xlsx
+++ b/lbdata_164.xlsx
@@ -887,7 +887,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,10 +919,10 @@
       <c r="C2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>569.66300000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>A3</f>
         <v>6.3326900000000004</v>
       </c>
@@ -934,10 +934,10 @@
       <c r="C3">
         <v>0.28499999999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>577.64</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>A6</f>
         <v>6.1800699999999997</v>
       </c>
@@ -949,10 +949,10 @@
       <c r="C4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>585.61699999999996</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>A9</f>
         <v>6.0296200000000004</v>
       </c>
@@ -964,10 +964,10 @@
       <c r="C5">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>593.59299999999996</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>A12</f>
         <v>5.8815</v>
       </c>
@@ -979,10 +979,10 @@
       <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>601.57000000000005</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>A15</f>
         <v>5.7358900000000004</v>
       </c>
@@ -994,10 +994,10 @@
       <c r="C7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>609.54700000000003</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>A18</f>
         <v>5.593</v>
       </c>
@@ -1009,10 +1009,10 @@
       <c r="C8">
         <v>0.31</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>617.524</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>A21</f>
         <v>5.45303</v>
       </c>
@@ -1024,10 +1024,10 @@
       <c r="C9">
         <v>0.315</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>625.50099999999998</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>A24</f>
         <v>5.3162200000000004</v>
       </c>
@@ -1039,10 +1039,10 @@
       <c r="C10">
         <v>0.32</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>633.47799999999995</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>A27</f>
         <v>5.1828099999999999</v>
       </c>
@@ -1054,10 +1054,10 @@
       <c r="C11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>641.45399999999995</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>A30</f>
         <v>5.0530799999999996</v>
       </c>
@@ -1069,10 +1069,10 @@
       <c r="C12">
         <v>0.33</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>649.43100000000004</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f>A33</f>
         <v>4.9273100000000003</v>
       </c>
@@ -1084,10 +1084,10 @@
       <c r="C13">
         <v>0.33499999999999902</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>657.40800000000002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>A36</f>
         <v>4.8058199999999998</v>
       </c>
